--- a/confined_CG_simulations/DDXsims_2.xlsx
+++ b/confined_CG_simulations/DDXsims_2.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matteo/Projects/confined_LLPS/confined_CG_simulations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E13486-B15E-034A-A920-8946E02E3BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D653CB-55C8-2F4E-AB90-BA825DF2AD53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{8B88C318-FD83-6048-8718-F679E725145C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -434,7 +434,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -464,7 +464,7 @@
         <v>50</v>
       </c>
       <c r="D2">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
